--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnai2-Adra2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnai2-Adra2b.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H2">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I2">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J2">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.500967</v>
+        <v>0.3737363333333333</v>
       </c>
       <c r="N2">
-        <v>22.502901</v>
+        <v>1.121209</v>
       </c>
       <c r="O2">
-        <v>0.7817272339743909</v>
+        <v>0.0566058187608514</v>
       </c>
       <c r="P2">
-        <v>0.7817272339743909</v>
+        <v>0.05660581876085141</v>
       </c>
       <c r="Q2">
-        <v>1380.648168621875</v>
+        <v>23.88593094425811</v>
       </c>
       <c r="R2">
-        <v>12425.83351759687</v>
+        <v>214.973378498323</v>
       </c>
       <c r="S2">
-        <v>0.5089439652897182</v>
+        <v>0.02302683334243916</v>
       </c>
       <c r="T2">
-        <v>0.5089439652897183</v>
+        <v>0.02302683334243917</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H3">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I3">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J3">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.003093</v>
       </c>
       <c r="O3">
-        <v>0.0001074475835219108</v>
+        <v>0.0001561544702435616</v>
       </c>
       <c r="P3">
-        <v>0.0001074475835219108</v>
+        <v>0.0001561544702435616</v>
       </c>
       <c r="Q3">
-        <v>0.1897686340773333</v>
+        <v>0.06589242898566666</v>
       </c>
       <c r="R3">
-        <v>1.707917706696</v>
+        <v>0.5930318608709999</v>
       </c>
       <c r="S3">
-        <v>6.995381105045515E-05</v>
+        <v>6.352249716882788E-05</v>
       </c>
       <c r="T3">
-        <v>6.995381105045516E-05</v>
+        <v>6.35224971688279E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H4">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I4">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J4">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.093378333333333</v>
+        <v>6.227669333333334</v>
       </c>
       <c r="N4">
-        <v>6.280135</v>
+        <v>18.683008</v>
       </c>
       <c r="O4">
-        <v>0.2181653184420871</v>
+        <v>0.943238026768905</v>
       </c>
       <c r="P4">
-        <v>0.2181653184420871</v>
+        <v>0.943238026768905</v>
       </c>
       <c r="Q4">
-        <v>385.3128486166356</v>
+        <v>398.0177102743751</v>
       </c>
       <c r="R4">
-        <v>3467.81563754972</v>
+        <v>3582.159392469376</v>
       </c>
       <c r="S4">
-        <v>0.1420366560495798</v>
+        <v>0.3837023352037468</v>
       </c>
       <c r="T4">
-        <v>0.1420366560495798</v>
+        <v>0.3837023352037469</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>172.3302</v>
       </c>
       <c r="I5">
-        <v>0.2031838091312023</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J5">
-        <v>0.2031838091312023</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.500967</v>
+        <v>0.3737363333333333</v>
       </c>
       <c r="N5">
-        <v>22.502901</v>
+        <v>1.121209</v>
       </c>
       <c r="O5">
-        <v>0.7817272339743909</v>
+        <v>0.0566058187608514</v>
       </c>
       <c r="P5">
-        <v>0.7817272339743909</v>
+        <v>0.05660581876085141</v>
       </c>
       <c r="Q5">
-        <v>430.8810477678001</v>
+        <v>21.4686856902</v>
       </c>
       <c r="R5">
-        <v>3877.929429910201</v>
+        <v>193.2181712118</v>
       </c>
       <c r="S5">
-        <v>0.1588343171005154</v>
+        <v>0.02069652837158022</v>
       </c>
       <c r="T5">
-        <v>0.1588343171005154</v>
+        <v>0.02069652837158023</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>172.3302</v>
       </c>
       <c r="I6">
-        <v>0.2031838091312023</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J6">
-        <v>0.2031838091312023</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,22 +806,22 @@
         <v>0.003093</v>
       </c>
       <c r="O6">
-        <v>0.0001074475835219108</v>
+        <v>0.0001561544702435616</v>
       </c>
       <c r="P6">
-        <v>0.0001074475835219108</v>
+        <v>0.0001561544702435616</v>
       </c>
       <c r="Q6">
         <v>0.0592241454</v>
       </c>
       <c r="R6">
-        <v>0.5330173086000001</v>
+        <v>0.5330173086</v>
       </c>
       <c r="S6">
-        <v>2.183160930192485E-05</v>
+        <v>5.709404959583596E-05</v>
       </c>
       <c r="T6">
-        <v>2.183160930192485E-05</v>
+        <v>5.709404959583596E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>172.3302</v>
       </c>
       <c r="I7">
-        <v>0.2031838091312023</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J7">
-        <v>0.2031838091312023</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.093378333333333</v>
+        <v>6.227669333333334</v>
       </c>
       <c r="N7">
-        <v>6.280135</v>
+        <v>18.683008</v>
       </c>
       <c r="O7">
-        <v>0.2181653184420871</v>
+        <v>0.943238026768905</v>
       </c>
       <c r="P7">
-        <v>0.2181653184420871</v>
+        <v>0.943238026768905</v>
       </c>
       <c r="Q7">
-        <v>120.250768953</v>
+        <v>357.7385005824</v>
       </c>
       <c r="R7">
-        <v>1082.256920577</v>
+        <v>3219.6465052416</v>
       </c>
       <c r="S7">
-        <v>0.04432766042138501</v>
+        <v>0.3448718349018429</v>
       </c>
       <c r="T7">
-        <v>0.044327660421385</v>
+        <v>0.3448718349018429</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>41.21033366666667</v>
+        <v>35.755375</v>
       </c>
       <c r="H8">
-        <v>123.631001</v>
+        <v>107.266125</v>
       </c>
       <c r="I8">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J8">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.500967</v>
+        <v>0.3737363333333333</v>
       </c>
       <c r="N8">
-        <v>22.502901</v>
+        <v>1.121209</v>
       </c>
       <c r="O8">
-        <v>0.7817272339743909</v>
+        <v>0.0566058187608514</v>
       </c>
       <c r="P8">
-        <v>0.7817272339743909</v>
+        <v>0.05660581876085141</v>
       </c>
       <c r="Q8">
-        <v>309.1173528926557</v>
+        <v>13.36308274945833</v>
       </c>
       <c r="R8">
-        <v>2782.056176033901</v>
+        <v>120.267744745125</v>
       </c>
       <c r="S8">
-        <v>0.1139489515841572</v>
+        <v>0.01288245704683201</v>
       </c>
       <c r="T8">
-        <v>0.1139489515841573</v>
+        <v>0.01288245704683202</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>41.21033366666667</v>
+        <v>35.755375</v>
       </c>
       <c r="H9">
-        <v>123.631001</v>
+        <v>107.266125</v>
       </c>
       <c r="I9">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J9">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,22 +992,22 @@
         <v>0.003093</v>
       </c>
       <c r="O9">
-        <v>0.0001074475835219108</v>
+        <v>0.0001561544702435616</v>
       </c>
       <c r="P9">
-        <v>0.0001074475835219108</v>
+        <v>0.0001561544702435616</v>
       </c>
       <c r="Q9">
-        <v>0.04248785401033334</v>
+        <v>0.036863791625</v>
       </c>
       <c r="R9">
-        <v>0.382390686093</v>
+        <v>0.331774124625</v>
       </c>
       <c r="S9">
-        <v>1.566216316953082E-05</v>
+        <v>3.553792347889772E-05</v>
       </c>
       <c r="T9">
-        <v>1.566216316953082E-05</v>
+        <v>3.553792347889772E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>41.21033366666667</v>
+        <v>35.755375</v>
       </c>
       <c r="H10">
-        <v>123.631001</v>
+        <v>107.266125</v>
       </c>
       <c r="I10">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J10">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.093378333333333</v>
+        <v>6.227669333333334</v>
       </c>
       <c r="N10">
-        <v>6.280135</v>
+        <v>18.683008</v>
       </c>
       <c r="O10">
-        <v>0.2181653184420871</v>
+        <v>0.943238026768905</v>
       </c>
       <c r="P10">
-        <v>0.2181653184420871</v>
+        <v>0.943238026768905</v>
       </c>
       <c r="Q10">
-        <v>86.26881960723723</v>
+        <v>222.6726523893334</v>
       </c>
       <c r="R10">
-        <v>776.419376465135</v>
+        <v>2004.053871504</v>
       </c>
       <c r="S10">
-        <v>0.03180100197112236</v>
+        <v>0.2146638566633152</v>
       </c>
       <c r="T10">
-        <v>0.03180100197112236</v>
+        <v>0.2146638566633152</v>
       </c>
     </row>
   </sheetData>
